--- a/Desafio Git e Github/Comandos GIT/git.xlsx
+++ b/Desafio Git e Github/Comandos GIT/git.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo\Documents\Dev\GitHub\DIO\dio-desafio-gitrub-primeiro-repositorio\Introducao ao Git e ao GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo\Documents\Dev\GitHub\DIO\dio-desafio-gitrub-primeiro-repositorio\Desafio Git e Github\Comandos GIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t xml:space="preserve">ls </t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>volta a versão da que deseja desfazer.</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -670,7 +673,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B30"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -801,7 +804,9 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
